--- a/biology/Botanique/Codonorchis_lessonii/Codonorchis_lessonii.xlsx
+++ b/biology/Botanique/Codonorchis_lessonii/Codonorchis_lessonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Codonorchis
 Codonorchis lessonii (d'Urv., Lindl., 1840) est une espèce de plantes à fleurs du genre Codonorchis, de la famille des Orchidaceae, de la sous-famille des Orchidoideae (Lindl.) et de la tribu des Codonorchideae.
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est nommée « Palomita » en Argentine ; « Dog Orchid » en anglais.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante pérenne haute de 30 à 50 cm dont les rhizomes forment des tubercules. Les feuilles, d'un vert brillant, arrondies et regroupées en 3 (rare 2 ou 4) se trouvent approximativement au milieu de la tige. Les fleurs sont blanches de 3,5 cm de diamètre et solitaires à l'extrémité sommitale de la tige. Les fruits sont des capsules de 1 cm de large de couleur marron.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles se trouvent dans des aires sombres et humides des bois et forêts.
 </t>
@@ -605,7 +623,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante endémique de la Patagonie. On l'observe depuis la province de Neuquén jusqu'en Terre de Feu, sur l'Île des États, l'Île Navarino, et toutes les îles autour du cap Horn et de la cordillère Darwin.
 </t>
@@ -636,7 +656,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré l'esthétisme de cette plante et de ses fleurs, elle n'est pas utilisée pour l'ornement des jardins.
 </t>
